--- a/participants/participant_02/participant_02_task_orders.xlsx
+++ b/participants/participant_02/participant_02_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730099016688" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730115535634" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873011554523" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730116180127" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730116829517" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911163442667" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911187393475" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911187413082" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291118788176" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291118866368" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730098685317.csv</t>
+          <t>go_stims-1650291116307487.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873009885351.csv</t>
+          <t>GNG_stims-16502911163283188.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730098863513.csv</t>
+          <t>go_stims-1650291116329327.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730099007447.csv</t>
+          <t>GNG_stims-16502911163433118.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498730107120342.csv</t>
+          <t>ZB-match_5-16502911164968307.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730099266906.csv</t>
+          <t>OB-16502911167638822.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730103122606.csv</t>
+          <t>OB-16502911170757525.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498730109658856.csv</t>
+          <t>TB-16502911180517466.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1649873011531769.csv</t>
+          <t>ZB-match_0-16502911167077854.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730100270033.csv</t>
+          <t>TB-1650291118727186.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1649873011472359.csv</t>
+          <t>TB-16502911171515625.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498730109203644.csv</t>
+          <t>ZB-match_8-16502911164671624.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-1649873010177769.csv</t>
+          <t>OB-16502911169699943.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730115695364.csv</t>
+          <t>MM_stims-16502911187553182.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730115565116.csv</t>
+          <t>ZM_stims-16502911187423563.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730116011577.csv</t>
+          <t>MM_stims-16502911187718277.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730115715206.csv</t>
+          <t>ZM_stims-16502911187553182.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730116170504.csv</t>
+          <t>MM_stims-16502911187872167.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730116021564.csv</t>
+          <t>ZM_stims-16502911187728293.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730116643248.csv</t>
+          <t>SAT_stims-1650291118818341.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730116330156.csv</t>
+          <t>SAT_stims-16502911187920463.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730116210146.csv</t>
+          <t>vSAT_stims-1650291118850211.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730116482992.csv</t>
+          <t>vSAT_stims-16502911188346283.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_task_orders.xlsx
+++ b/participants/participant_02/participant_02_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911163442667" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911187393475" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911187413082" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291118788176" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291118866368" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777734963791" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477775785389" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777757883766" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477775864383" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777759593773" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291116307487.csv</t>
+          <t>go_stims-16504777734483786.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911163283188.csv</t>
+          <t>GNG_stims-16504777734633775.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291116329327.csv</t>
+          <t>go_stims-16504777734653876.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911163433118.csv</t>
+          <t>GNG_stims-16504777734963791.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502911164968307.csv</t>
+          <t>OB-16504777743413944.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502911167638822.csv</t>
+          <t>ZB-match_7-165047777407838.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911170757525.csv</t>
+          <t>TB-16504777757673814.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911180517466.csv</t>
+          <t>TB-1650477775162422.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502911167077854.csv</t>
+          <t>ZB-match_7-16504777741903777.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650291118727186.csv</t>
+          <t>OB-16504777751003838.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502911171515625.csv</t>
+          <t>ZB-match_3-1650477773629375.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502911164671624.csv</t>
+          <t>OB-16504777745364.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502911169699943.csv</t>
+          <t>TB-16504777752233841.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911187553182.csv</t>
+          <t>MM_stims-16504777758174133.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911187423563.csv</t>
+          <t>ZM_stims-16504777757923777.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911187718277.csv</t>
+          <t>MM_stims-16504777758484123.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911187553182.csv</t>
+          <t>ZM_stims-16504777758183753.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911187872167.csv</t>
+          <t>MM_stims-16504777758633842.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911187728293.csv</t>
+          <t>ZM_stims-16504777758503773.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291118818341.csv</t>
+          <t>SAT_stims-16504777758703861.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911187920463.csv</t>
+          <t>SAT_stims-16504777758963819.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291118850211.csv</t>
+          <t>vSAT_stims-16504777759123855.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911188346283.csv</t>
+          <t>vSAT_stims-16504777759433832.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_task_orders.xlsx
+++ b/participants/participant_02/participant_02_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777734963791" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477775785389" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777757883766" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477775864383" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777759593773" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960639308066" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960656418076" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960656418076" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960656978061" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960657618368" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504777734483786.csv</t>
+          <t>go_stims-16509960638907716.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777734633775.csv</t>
+          <t>GNG_stims-16509960639068065.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777734653876.csv</t>
+          <t>go_stims-16509960639068065.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777734963791.csv</t>
+          <t>GNG_stims-16509960639308066.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504777743413944.csv</t>
+          <t>OB-16509960645858035.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-165047777407838.csv</t>
+          <t>ZB-match_2-16509960640747747.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504777757673814.csv</t>
+          <t>TB-16509960656178312.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650477775162422.csv</t>
+          <t>ZB-match_2-16509960645378082.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504777741903777.csv</t>
+          <t>TB-16509960651778123.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504777751003838.csv</t>
+          <t>OB-16509960649778028.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650477773629375.csv</t>
+          <t>OB-16509960647378442.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504777745364.csv</t>
+          <t>TB-1650996065441847.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504777752233841.csv</t>
+          <t>ZB-match_0-16509960639707708.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777758174133.csv</t>
+          <t>MM_stims-16509960656658404.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777757923777.csv</t>
+          <t>ZM_stims-16509960656418076.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777758484123.csv</t>
+          <t>MM_stims-16509960656818087.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777758183753.csv</t>
+          <t>ZM_stims-16509960656658404.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777758633842.csv</t>
+          <t>MM_stims-16509960656978061.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777758503773.csv</t>
+          <t>ZM_stims-16509960656818087.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777758703861.csv</t>
+          <t>vSAT_stims-16509960657458048.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777758963819.csv</t>
+          <t>SAT_stims-16509960657138112.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777759123855.csv</t>
+          <t>SAT_stims-16509960656978061.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777759433832.csv</t>
+          <t>vSAT_stims-16509960657298076.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_task_orders.xlsx
+++ b/participants/participant_02/participant_02_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960639308066" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960656418076" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960656418076" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960656978061" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960657618368" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686477695434" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686501867845" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686501877522" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686502347858" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686502976882" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960638907716.csv</t>
+          <t>go_stims-16511686477375429.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960639068065.csv</t>
+          <t>GNG_stims-16511686477535434.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960639068065.csv</t>
+          <t>go_stims-16511686477545457.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960639308066.csv</t>
+          <t>GNG_stims-16511686477685437.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509960645858035.csv</t>
+          <t>OB-16511686492647562.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509960640747747.csv</t>
+          <t>OB-1651168649015754.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509960656178312.csv</t>
+          <t>ZB-match_2-16511686477935436.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509960645378082.csv</t>
+          <t>TB-16511686501657517.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960651778123.csv</t>
+          <t>OB-16511686485897553.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509960649778028.csv</t>
+          <t>TB-16511686494227543.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509960647378442.csv</t>
+          <t>TB-16511686494937856.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650996065441847.csv</t>
+          <t>ZB-match_0-16511686478855445.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960639707708.csv</t>
+          <t>ZB-match_5-16511686481607547.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960656658404.csv</t>
+          <t>MM_stims-1651168650202785.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960656418076.csv</t>
+          <t>ZM_stims-16511686501897526.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960656818087.csv</t>
+          <t>MM_stims-16511686502187657.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960656658404.csv</t>
+          <t>ZM_stims-1651168650202785.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960656978061.csv</t>
+          <t>MM_stims-16511686502347858.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960656818087.csv</t>
+          <t>ZM_stims-16511686502197542.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960657458048.csv</t>
+          <t>SAT_stims-16511686502507863.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960657138112.csv</t>
+          <t>vSAT_stims-16511686502664113.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960656978061.csv</t>
+          <t>SAT_stims-16511686502377517.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960657298076.csv</t>
+          <t>vSAT_stims-16511686502824118.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_task_orders.xlsx
+++ b/participants/participant_02/participant_02_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686477695434" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686501867845" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686501877522" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686502347858" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686502976882" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512554812004519" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512554828371131" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255482841217" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512554829108694" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255483017589" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686477375429.csv</t>
+          <t>go_stims-1651255481167254.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686477535434.csv</t>
+          <t>GNG_stims-16512554811833642.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686477545457.csv</t>
+          <t>go_stims-16512554811852875.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686477685437.csv</t>
+          <t>GNG_stims-16512554811994097.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511686492647562.csv</t>
+          <t>TB-1651255482814433.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651168649015754.csv</t>
+          <t>ZB-match_5-16512554818761458.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686477935436.csv</t>
+          <t>OB-16512554822250252.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511686501657517.csv</t>
+          <t>TB-16512554827413402.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511686485897553.csv</t>
+          <t>ZB-match_2-1651255481424914.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511686494227543.csv</t>
+          <t>OB-16512554823695858.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511686494937856.csv</t>
+          <t>TB-16512554825074532.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511686478855445.csv</t>
+          <t>OB-1651255482003001.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511686481607547.csv</t>
+          <t>ZB-match_9-16512554816314726.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168650202785.csv</t>
+          <t>MM_stims-16512554828659723.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686501897526.csv</t>
+          <t>ZM_stims-16512554828451188.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686502187657.csv</t>
+          <t>MM_stims-16512554828976758.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168650202785.csv</t>
+          <t>ZM_stims-16512554828679621.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686502347858.csv</t>
+          <t>MM_stims-16512554829098735.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686502197542.csv</t>
+          <t>ZM_stims-16512554828986802.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686502507863.csv</t>
+          <t>vSAT_stims-1651255483002457.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686502664113.csv</t>
+          <t>SAT_stims-16512554829178002.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686502377517.csv</t>
+          <t>vSAT_stims-16512554829569082.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686502824118.csv</t>
+          <t>SAT_stims-16512554829343317.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_02/participant_02_task_orders.xlsx
+++ b/participants/participant_02/participant_02_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512554812004519" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512554828371131" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255482841217" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512554829108694" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255483017589" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-16515889111908257" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515889112310197" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TOL_TO-16515889112926545" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515889143196425" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651588914398006" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +429,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -450,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255481167254.csv</t>
+          <t>go_stims-16515889111946614.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554811833642.csv</t>
+          <t>GNG_stims-16515889112132423.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512554811852875.csv</t>
+          <t>go_stims-1651588911215091.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554811994097.csv</t>
+          <t>GNG_stims-1651588911229015.csv</t>
         </is>
       </c>
     </row>
@@ -489,7 +535,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889112588556.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889112341201.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889112746408.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889112598197.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889112916434.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889112757072.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +648,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1651255482814433.csv</t>
+          <t>ZB-match_6-16515889113613956.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +658,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512554818761458.csv</t>
+          <t>TB-16515889139825356.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +668,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512554822250252.csv</t>
+          <t>OB-1651588912072055.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +678,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512554827413402.csv</t>
+          <t>OB-16515889134065676.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +688,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-1651255481424914.csv</t>
+          <t>TB-16515889143044312.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +698,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16512554823695858.csv</t>
+          <t>ZB-match_3-16515889114119787.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +708,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16512554825074532.csv</t>
+          <t>OB-16515889122547374.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651255482003001.csv</t>
+          <t>TB-16515889137811532.csv</t>
         </is>
       </c>
     </row>
@@ -596,139 +728,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512554816314726.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554828659723.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554828451188.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554828976758.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554828679621.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554829098735.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554828986802.csv</t>
+          <t>ZB-match_8-16515889117666283.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255483002457.csv</t>
+          <t>SAT_stims-16515889143226066.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554829178002.csv</t>
+          <t>vSAT_stims-1651588914351466.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554829569082.csv</t>
+          <t>vSAT_stims-16515889143822083.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554829343317.csv</t>
+          <t>SAT_stims-16515889143354964.csv</t>
         </is>
       </c>
     </row>
